--- a/libro 1 Diego.xlsx
+++ b/libro 1 Diego.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\humbe\Desktop\Calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E15E7A-5B78-4C4C-89C9-90E10AF69B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A4FFF-DD22-4C50-9B73-8E0B5BE484F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{06A9C296-FAD3-4967-8E0E-77C6B5316526}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="7">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="C8" s="8">
         <v>0.375</v>
